--- a/bv_values.xlsx
+++ b/bv_values.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>BV40</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>BV1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>BV2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>BV20</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BV21</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>BV22</t>
         </is>
@@ -494,6 +499,11 @@
           <t>inactive</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -506,20 +516,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>active</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>active</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>inactive</t>
         </is>
@@ -550,6 +565,11 @@
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>inactive</t>
         </is>
@@ -564,6 +584,69 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1601</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bv_values.xlsx
+++ b/bv_values.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,62 +444,12 @@
           <t>BV40</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>BV1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>BV2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BV20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>BV21</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>BV22</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>inactive</t>
         </is>
@@ -507,146 +457,911 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
+        <v>4001</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
+        <v>4002</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1200</v>
+        <v>4003</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1601</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>inactive</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
+        <v>4004</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1603</v>
-      </c>
-      <c r="B7" t="inlineStr">
+        <v>4005</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4006</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4007</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4009</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4010</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4011</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4014</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4015</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4016</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4017</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4019</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>100001</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>100002</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100003</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>100004</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>100005</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>100006</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>100007</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>100008</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>100009</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>100010</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>100011</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>100012</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>100013</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100014</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100015</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100016</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100017</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100018</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>100019</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>100020</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>100021</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>100022</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>100023</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>100024</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>100025</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>100026</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>100027</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>100028</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>100029</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>100030</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>100031</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>100032</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>inactive</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>100100</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>inactive</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>100101</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>100102</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>100103</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>inactive</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>101000</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>101001</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>101002</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>101003</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>101004</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>101006</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>101011</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>101012</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>101013</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>101014</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>101015</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>101017</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>101019</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>101020</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>101021</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>101022</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>101023</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>101024</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>101025</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>101100</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>101108</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>101201</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>101202</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>101203</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>101204</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>101205</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>101206</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>101207</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>102000</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>inactive</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>102001</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>inactive</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>102002</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>inactive</t>
         </is>
       </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>199002</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>200000</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>200001</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>200002</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>200003</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>200004</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>200005</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>200006</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>200007</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>200008</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>200009</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>200010</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>200011</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>200033</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>200034</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>200035</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>200036</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>200037</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>201000</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>203000</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>203001</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>204000</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>205000</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>206000</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>299001</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>299003</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>299999</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>399001</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>3056763</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
